--- a/outputs-HGR-r202/o__Clostridiales.xlsx
+++ b/outputs-HGR-r202/o__Clostridiales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>f__Clostridiaceae</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +501,11 @@
           <t>f__Clostridiaceae</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -505,6 +520,11 @@
         <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>f__Clostridiaceae</t>
         </is>

--- a/outputs-HGR-r202/o__Clostridiales.xlsx
+++ b/outputs-HGR-r202/o__Clostridiales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,15 +447,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -468,17 +463,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+        <v>1116.48168525535</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>f__Clostridiaceae</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
         <is>
           <t>f__Clostridiaceae</t>
         </is>
@@ -491,17 +483,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+        <v>11634.99985408273</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>f__Clostridiaceae</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>f__Clostridiaceae</t>
         </is>
@@ -514,17 +503,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+        <v>2263.333220441152</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>f__Clostridiaceae</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>f__Clostridiaceae</t>
         </is>

--- a/outputs-HGR-r202/o__Clostridiales.xlsx
+++ b/outputs-HGR-r202/o__Clostridiales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2438.fa</t>
+          <t>even_MAG-GUT1081.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1116.48168525535</v>
+        <v>7576.315537739705</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -479,11 +479,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46783.fa</t>
+          <t>even_MAG-GUT1184.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11634.99985408273</v>
+        <v>14038.32548898091</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -499,18 +499,1538 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT1214.fa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7985.109619087883</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1240.fa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18887.21526950232</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1248.fa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9416.050195072159</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1455.fa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5393.140724296043</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1488.fa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11942.23693273698</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1500.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18595.69674525145</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1509.fa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>25756.41125857558</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1516.fa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19478.74110282498</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1578.fa</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9471.12655399201</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1882.fa</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3515.008418470151</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1894.fa</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>22060.97382139602</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1915.fa</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9964.210381008381</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT21168.fa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3555.84153004049</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT21728.fa</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>11734.31809401961</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT2201.fa</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8576.338958756814</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT2250.fa</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10124.84008367894</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT2438.fa</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1116.48168525535</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT27453.fa</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2445.214348982483</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3323.fa</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-2140.380582062141</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3474.fa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>17978.31822241437</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3480.fa</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>21741.73878720863</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT36616.fa</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>18540.12955070426</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT36756.fa</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>12605.3604758539</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT41852.fa</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>20829.81381010129</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT42578.fa</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>269.47779763573</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43402.fa</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>20483.09074176563</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43491.fa</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>18783.90156677354</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43515.fa</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>10479.39423789778</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT44179.fa</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>10824.1306679191</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT45687.fa</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3769.624153290806</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT46783.fa</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>11634.99985408273</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT47637.fa</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>13877.16678101821</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT47723.fa</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>13576.50657362001</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT47782.fa</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>15605.38753704528</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48571.fa</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>10576.81990278149</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48940.fa</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>3741.410289985066</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49005.fa</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>17009.73428860623</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49071.fa</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2128.77560284542</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49179.fa</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1660.13116098825</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT66152.fa</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>6571.162361760847</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT66408.fa</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>24613.27120740699</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT70165.fa</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>10837.98624732457</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT70664.fa</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>28577.52658135896</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT71347.fa</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>12028.16758334103</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7285.fa</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>21634.99393698088</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT74675.fa</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B49" t="n">
         <v>2263.333220441152</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>f__Clostridiaceae</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7751.fa</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2731.959545285877</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89102.fa</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>15860.41152804024</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89255.fa</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>14006.25309809649</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89282.fa</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>19644.0272570489</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89309.fa</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>4806.197444118729</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89335.fa</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>7228.793223406114</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89577.fa</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>16135.8961841934</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89735.fa</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3423.574060159741</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89747.fa</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>23234.47932517708</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89833.fa</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>23532.62455554461</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89836.fa</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>7379.101195267584</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90694.fa</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>25457.63014727627</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91110.fa</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>23532.62455554461</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91199.fa</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>13365.43563903382</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91265.fa</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>15678.15544232488</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91359.fa</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>16558.11664005672</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91370.fa</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>26379.97134768785</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91379.fa</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>20823.38863068783</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91430.fa</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>17334.9803416656</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91432.fa</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>12007.50515677802</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91493.fa</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>13365.44045725256</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91537.fa</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>24727.82960668579</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91584.fa</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>13017.00969671131</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91622.fa</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>8891.977218625951</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91705.fa</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>18190.57859021281</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91816.fa</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>8418.971637693097</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91830.fa</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>12395.59421018028</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91887.fa</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>14206.42638377866</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91939.fa</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>13708.63778377971</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91958.fa</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>10624.39075220579</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91967.fa</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2536.213641924261</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>f__Clostridiaceae</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>f__Clostridiaceae</t>
         </is>
